--- a/biology/Botanique/Doronic_à_grandes_fleurs/Doronic_à_grandes_fleurs.xlsx
+++ b/biology/Botanique/Doronic_à_grandes_fleurs/Doronic_à_grandes_fleurs.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Doronic_%C3%A0_grandes_fleurs</t>
+          <t>Doronic_à_grandes_fleurs</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Doronicum grandiflorum
 Le Doronic à grandes fleurs (Doronicum grandiflorum) est une espèce de plantes à fleurs de la famille des Asteraceae.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Doronic_%C3%A0_grandes_fleurs</t>
+          <t>Doronic_à_grandes_fleurs</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante herbacée vivace de 15 à 50 cm. Les tiges sont glanduleuses très feuillées en bas. Les feuilles sont ovales à bords dentelés, disposées en rosettes ou alternées. Les fleurs sont jaunes, en gros capitules solitaires (5 cm).
 Elle pousse en massifs.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Doronic_%C3%A0_grandes_fleurs</t>
+          <t>Doronic_à_grandes_fleurs</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Floraison</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Juillet et août, mais on peut en voir jusqu'au mois de novembre si l'automne est clément.
 </t>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Doronic_%C3%A0_grandes_fleurs</t>
+          <t>Doronic_à_grandes_fleurs</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Terrain : roches et pierriers
 Altitude : 1 300 à 2 900 mètres</t>
@@ -589,7 +607,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Doronic_%C3%A0_grandes_fleurs</t>
+          <t>Doronic_à_grandes_fleurs</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -607,7 +625,9 @@
           <t>Aire de répartition</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Alpes, Corse, Pyrénées et le nord des Balkans.
 </t>
@@ -620,7 +640,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Doronic_%C3%A0_grandes_fleurs</t>
+          <t>Doronic_à_grandes_fleurs</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -638,7 +658,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Utilisée pour parfumer les fromages
 Ersatz de tabac.</t>
